--- a/upload_files/PINAR_YASAR_2020_2__JL1_-_Oracle.xlsx
+++ b/upload_files/PINAR_YASAR_2020_2__JL1_-_Oracle.xlsx
@@ -647,13 +647,13 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>73</v>
@@ -667,10 +667,10 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -678,10 +678,10 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">

--- a/upload_files/PINAR_YASAR_2020_2__JL1_-_Oracle.xlsx
+++ b/upload_files/PINAR_YASAR_2020_2__JL1_-_Oracle.xlsx
@@ -220,10 +220,10 @@
     <t>hadoop : 2</t>
   </si>
   <si>
+    <t>database : 1</t>
+  </si>
+  <si>
     <t>oracle : 11</t>
-  </si>
-  <si>
-    <t>database : 1</t>
   </si>
   <si>
     <t>27.27</t>
@@ -670,7 +670,7 @@
         <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -681,7 +681,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">

--- a/upload_files/PINAR_YASAR_2020_2__JL1_-_Oracle.xlsx
+++ b/upload_files/PINAR_YASAR_2020_2__JL1_-_Oracle.xlsx
@@ -220,10 +220,10 @@
     <t>hadoop : 2</t>
   </si>
   <si>
+    <t>oracle : 11</t>
+  </si>
+  <si>
     <t>database : 1</t>
-  </si>
-  <si>
-    <t>oracle : 11</t>
   </si>
   <si>
     <t>27.27</t>
@@ -647,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>70</v>
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -678,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
         <v>72</v>
